--- a/biology/Botanique/Microsorium_pteropus/Microsorium_pteropus.xlsx
+++ b/biology/Botanique/Microsorium_pteropus/Microsorium_pteropus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microsorium pteropus ou fougère de Java est une plante d'eau douce, faisant partie de la famille des Polypodiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Sud-est asiatique. À l'état naturel, cette fougère vit aussi bien dans l'eau que sur les rives. La culture des plants pour l'aquariophilie commence dès 1957[1] dans l'entreprise "Tropicarium" à Francfort (Allemagne).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Sud-est asiatique. À l'état naturel, cette fougère vit aussi bien dans l'eau que sur les rives. La culture des plants pour l'aquariophilie commence dès 1957 dans l'entreprise "Tropicarium" à Francfort (Allemagne).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est une fougère amphibie de couleur vert foncé, dont le rhizome rampant s'accroche à tous les supports. La plante peut atteindre jusqu'à 40 cm. Chaque feuille pousse à l'extrémité d'une tige partant du rhizome. Sa croissance est lente. Le rhizome s'attache à tous les supports, aux roches et aux débris de bois, grâce à de fines et nombreuses racines noires adventives.
 Les feuilles sont habituellement constituées d'une seule foliole, mais il arrive qu'elles soient trilobées. Le cultivar "Windelov" donne des frondes aux extrémités crépues, le "Trident" donne des frondes ramifiées. De nombreux cultivars existent, se différenciant par la largeur et la longueur des frondes.
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fougère de Java est une plante peu exigeante. Elle possède la particularité de s'adapter à des eaux dures ou saumâtres. Un éclairage fort est tout de même conseillé. Une température de l'eau entre 22 et 28 °C, une dureté de 6 à 10 °f et un pH compris entre 5 et 8 sont favorables à sa croissance. C'est une plante ayant une croissance moyenne voire lente.
 Le rhizome ne doit pas être enterré au risque de le voir pourrir, ce qui provoquerait la mort de la plante. Le rhizome peut être fixé sur un élément du décor comme une pierre ou une racine à l'aide d'un fil en nylon. Les racines en se développant vont alors s'accrocher au support.
@@ -610,7 +628,9 @@
           <t>Entretien</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est recommandé de placer cette plante qui aime le courant à la sortie du système de filtration. De temps en temps, il faut couper les feuilles noircies afin de fortifier la plante et éviter son pourrissement.
 </t>
@@ -641,7 +661,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La multiplication se pratique par fragmentation du rhizome. Les fragments à l'origine de nouveaux plants doivent posséder au moins 5 ou 6 feuilles. Pour la fixer, il suffit d'utiliser un fil de nylon afin d'éviter d'enterrer les racines, qui risquent de pourrir.
 Des plantules se développent aussi sur les feuilles les plus vieilles. Elles peuvent être séparées de la plante mère une fois qu'elles ont développé quelques feuilles et racines.
@@ -673,7 +695,9 @@
           <t>Variété</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Microsorum pteropus var. Narrow Leaf
 Se distinguent par l'étroitesse et la densité de feuillage de la variété par rapport à botanique.
